--- a/data/6.7mb/cachewise/client-1-rotate-6.7MB-response-time-2015_12_09 22-38-37.csv.xlsx
+++ b/data/6.7mb/cachewise/client-1-rotate-6.7MB-response-time-2015_12_09 22-38-37.csv.xlsx
@@ -1,260 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
-  <si>
-    <t>2069287393</t>
-  </si>
-  <si>
-    <t>1493925513</t>
-  </si>
-  <si>
-    <t>1486472039</t>
-  </si>
-  <si>
-    <t>1313040663</t>
-  </si>
-  <si>
-    <t>1486270888</t>
-  </si>
-  <si>
-    <t>1300687843</t>
-  </si>
-  <si>
-    <t>1462179381</t>
-  </si>
-  <si>
-    <t>1480171434</t>
-  </si>
-  <si>
-    <t>1471677446</t>
-  </si>
-  <si>
-    <t>1468403829</t>
-  </si>
-  <si>
-    <t>1895335920</t>
-  </si>
-  <si>
-    <t>2116518088</t>
-  </si>
-  <si>
-    <t>1452830190</t>
-  </si>
-  <si>
-    <t>2059098199</t>
-  </si>
-  <si>
-    <t>1499238961</t>
-  </si>
-  <si>
-    <t>1516343893</t>
-  </si>
-  <si>
-    <t>1388441606</t>
-  </si>
-  <si>
-    <t>1489323074</t>
-  </si>
-  <si>
-    <t>1376425851</t>
-  </si>
-  <si>
-    <t>1391710543</t>
-  </si>
-  <si>
-    <t>1472944511</t>
-  </si>
-  <si>
-    <t>1504412375</t>
-  </si>
-  <si>
-    <t>1372073321</t>
-  </si>
-  <si>
-    <t>1456310198</t>
-  </si>
-  <si>
-    <t>1306376394</t>
-  </si>
-  <si>
-    <t>1521280917</t>
-  </si>
-  <si>
-    <t>1464104617</t>
-  </si>
-  <si>
-    <t>1480780288</t>
-  </si>
-  <si>
-    <t>1455404038</t>
-  </si>
-  <si>
-    <t>1498594229</t>
-  </si>
-  <si>
-    <t>1393844290</t>
-  </si>
-  <si>
-    <t>1360176961</t>
-  </si>
-  <si>
-    <t>1311066629</t>
-  </si>
-  <si>
-    <t>1298647772</t>
-  </si>
-  <si>
-    <t>1281522201</t>
-  </si>
-  <si>
-    <t>1484792112</t>
-  </si>
-  <si>
-    <t>1393369590</t>
-  </si>
-  <si>
-    <t>1487599189</t>
-  </si>
-  <si>
-    <t>1312069146</t>
-  </si>
-  <si>
-    <t>1376753877</t>
-  </si>
-  <si>
-    <t>1289008714</t>
-  </si>
-  <si>
-    <t>1297417426</t>
-  </si>
-  <si>
-    <t>1306845534</t>
-  </si>
-  <si>
-    <t>1384034878</t>
-  </si>
-  <si>
-    <t>1505266098</t>
-  </si>
-  <si>
-    <t>1380013895</t>
-  </si>
-  <si>
-    <t>1383501702</t>
-  </si>
-  <si>
-    <t>1310297302</t>
-  </si>
-  <si>
-    <t>1294594749</t>
-  </si>
-  <si>
-    <t>2055440839</t>
-  </si>
-  <si>
-    <t>1309979437</t>
-  </si>
-  <si>
-    <t>1393637658</t>
-  </si>
-  <si>
-    <t>1315565072</t>
-  </si>
-  <si>
-    <t>1308179395</t>
-  </si>
-  <si>
-    <t>1302786431</t>
-  </si>
-  <si>
-    <t>1457740255</t>
-  </si>
-  <si>
-    <t>1389096138</t>
-  </si>
-  <si>
-    <t>1477083210</t>
-  </si>
-  <si>
-    <t>1440090027</t>
-  </si>
-  <si>
-    <t>1393907206</t>
-  </si>
-  <si>
-    <t>1290663161</t>
-  </si>
-  <si>
-    <t>1461434573</t>
-  </si>
-  <si>
-    <t>1378919902</t>
-  </si>
-  <si>
-    <t>1400686431</t>
-  </si>
-  <si>
-    <t>2016713893</t>
-  </si>
-  <si>
-    <t>1280997904</t>
-  </si>
-  <si>
-    <t>1389408884</t>
-  </si>
-  <si>
-    <t>1527483045</t>
-  </si>
-  <si>
-    <t>1299469456</t>
-  </si>
-  <si>
-    <t>1370388675</t>
-  </si>
-  <si>
-    <t>1386049990</t>
-  </si>
-  <si>
-    <t>1302080423</t>
-  </si>
-  <si>
-    <t>1886594382</t>
-  </si>
-  <si>
-    <t>1415516621</t>
-  </si>
-</sst>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="19425" windowHeight="8460"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+  <extLst/>
+</workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -269,22 +53,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="5" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -329,69 +134,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,8 +331,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -561,396 +368,445 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.7142857142857"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>2069287393</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>1493925513</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>1486472039</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>1313040663</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>1486270888</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>1300687843</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>1462179381</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1">
+        <v>1480171434</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1">
+        <v>1471677446</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1">
+        <v>1468403829</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1">
+        <v>1895335920</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1">
+        <v>2116518088</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1">
+        <v>1452830190</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1">
+        <v>2059098199</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1">
+        <v>1499238961</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1">
+        <v>1516343893</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1">
+        <v>1388441606</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1">
+        <v>1489323074</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1">
+        <v>1376425851</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1">
+        <v>1391710543</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1">
+        <v>1472944511</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1">
+        <v>1504412375</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1">
+        <v>1372073321</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1">
+        <v>1456310198</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1">
+        <v>1306376394</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1">
+        <v>1521280917</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1">
+        <v>1464104617</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1">
+        <v>1480780288</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1">
+        <v>1455404038</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1">
+        <v>1498594229</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1">
+        <v>1393844290</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1">
+        <v>1360176961</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1">
+        <v>1311066629</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1">
+        <v>1298647772</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1">
+        <v>1281522201</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1">
+        <v>1484792112</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1">
+        <v>1393369590</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1">
+        <v>1487599189</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1">
+        <v>1312069146</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1">
+        <v>1376753877</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1">
+        <v>1289008714</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="1">
+        <v>1297417426</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>42</v>
+      <c r="A43" s="1">
+        <v>1306845534</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>43</v>
+      <c r="A44" s="1">
+        <v>1384034878</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>44</v>
+      <c r="A45" s="1">
+        <v>1505266098</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>45</v>
+      <c r="A46" s="1">
+        <v>1380013895</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>46</v>
+      <c r="A47" s="1">
+        <v>1383501702</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
+      <c r="A48" s="1">
+        <v>1310297302</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>48</v>
+      <c r="A49" s="1">
+        <v>1294594749</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>49</v>
+      <c r="A50" s="1">
+        <v>2055440839</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>50</v>
+      <c r="A51" s="1">
+        <v>1309979437</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>51</v>
+      <c r="A52" s="1">
+        <v>1393637658</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>52</v>
+      <c r="A53" s="1">
+        <v>1315565072</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>53</v>
+      <c r="A54" s="1">
+        <v>1308179395</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>54</v>
+      <c r="A55" s="1">
+        <v>1302786431</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>55</v>
+      <c r="A56" s="1">
+        <v>1457740255</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>56</v>
+      <c r="A57" s="1">
+        <v>1389096138</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>57</v>
+      <c r="A58" s="1">
+        <v>1477083210</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>58</v>
+      <c r="A59" s="1">
+        <v>1440090027</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>59</v>
+      <c r="A60" s="1">
+        <v>1393907206</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>60</v>
+      <c r="A61" s="1">
+        <v>1290663161</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>61</v>
+      <c r="A62" s="1">
+        <v>1461434573</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>62</v>
+      <c r="A63" s="1">
+        <v>1378919902</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>63</v>
+      <c r="A64" s="1">
+        <v>1400686431</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>64</v>
+      <c r="A65" s="1">
+        <v>2016713893</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>65</v>
+      <c r="A66" s="1">
+        <v>1280997904</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>66</v>
+      <c r="A67" s="1">
+        <v>1389408884</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>67</v>
+      <c r="A68" s="1">
+        <v>1527483045</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>68</v>
+      <c r="A69" s="1">
+        <v>1299469456</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>69</v>
+      <c r="A70" s="1">
+        <v>1370388675</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>70</v>
+      <c r="A71" s="1">
+        <v>1386049990</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>71</v>
+      <c r="A72" s="1">
+        <v>1302080423</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>72</v>
+      <c r="A73" s="1">
+        <v>1886594382</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>73</v>
+      <c r="A74" s="1">
+        <v>1415516621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <f>AVERAGE(A1:A74)</f>
+        <v>1457437820.47297</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>